--- a/samples/8_special_template/exported_file.xlsx
+++ b/samples/8_special_template/exported_file.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
@@ -25,7 +25,7 @@
     <t>*подробнее уточняйте у менеджеров магазина.</t>
   </si>
   <si>
-    <t>Бланк заказа №1111111 от 2019-10-02</t>
+    <t>Бланк заказа №1111111 от 2026-01-06</t>
   </si>
   <si>
     <t>Заказчик</t>
@@ -170,7 +170,7 @@
     <t>(подпись исполнителя)</t>
   </si>
   <si>
-    <t>Квитанция к заказу №1111111 от 2019-10-02</t>
+    <t>Квитанция к заказу №1111111 от 2026-01-06</t>
   </si>
   <si>
     <t>{auto}</t>
@@ -183,26 +183,26 @@
     <t>2018-01-01</t>
   </si>
   <si>
-    <t>2018-01-02</t>
-  </si>
-  <si>
-    <t>2018-01-03</t>
-  </si>
-  <si>
-    <t>2018-01-04</t>
-  </si>
-  <si>
-    <t>2018-01-05</t>
-  </si>
-  <si>
     <t>Плетухин Никита Андреевич
 +7 4212 601-666</t>
+  </si>
+  <si>
+    <t>2018-01-02</t>
+  </si>
+  <si>
+    <t>2018-01-03</t>
+  </si>
+  <si>
+    <t>2018-01-04</t>
+  </si>
+  <si>
+    <t>2018-01-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="16">
     <font>
@@ -213,6 +213,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="1"/>
@@ -222,6 +223,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="0"/>
@@ -231,6 +233,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="1"/>
@@ -240,6 +243,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="1"/>
@@ -249,6 +253,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Microsoft Sans Serif"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="0"/>
@@ -258,6 +263,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="0"/>
@@ -267,6 +273,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="1"/>
@@ -276,6 +283,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="1"/>
@@ -285,6 +293,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="1"/>
@@ -294,6 +303,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="0"/>
@@ -303,6 +313,7 @@
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="0"/>
@@ -312,6 +323,7 @@
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="1"/>
@@ -321,6 +333,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="1"/>
@@ -330,6 +343,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="0"/>
@@ -339,6 +353,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="0"/>
@@ -348,20 +363,15 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -371,42 +381,70 @@
     </fill>
   </fills>
   <borders count="16">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -415,16 +453,23 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -434,29 +479,45 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="dotted">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -471,177 +532,178 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="0" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="14" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="14" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="15" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="15" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="0" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="0" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="4" fillId="2" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="4" fillId="0" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="14" fillId="2" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="14" fillId="0" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" readingOrder="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="3" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -656,7 +718,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -694,7 +756,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -728,7 +790,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -763,7 +824,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -939,13 +999,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:AP58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A10">
       <selection activeCell="AA44" sqref="AA44"/>
     </sheetView>
   </sheetViews>
@@ -2675,7 +2735,7 @@
         <v>26</v>
       </c>
       <c r="AG40" s="48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH40" s="48"/>
       <c r="AI40" s="48"/>
@@ -2728,7 +2788,7 @@
         <v>26</v>
       </c>
       <c r="AG41" s="48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH41" s="48"/>
       <c r="AI41" s="48"/>
@@ -2781,7 +2841,7 @@
         <v>26</v>
       </c>
       <c r="AG42" s="48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH42" s="48"/>
       <c r="AI42" s="48"/>
@@ -2834,7 +2894,7 @@
         <v>26</v>
       </c>
       <c r="AG43" s="48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH43" s="48"/>
       <c r="AI43" s="48"/>
@@ -3068,7 +3128,7 @@
     <row r="56" spans="1:42" customHeight="1" ht="69.2"/>
     <row r="57" spans="1:42" customHeight="1" ht="21.4">
       <c r="B57" s="50" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C57" s="50"/>
       <c r="D57" s="50"/>
@@ -3109,7 +3169,7 @@
     </row>
     <row r="58" spans="1:42" customHeight="1" ht="4.35"/>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="true"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells>
     <mergeCell ref="AG39:AM39"/>
     <mergeCell ref="Y49:AL49"/>
@@ -3232,14 +3292,6 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.39375" right="0.39375" top="1.96875" bottom="0.39375" header="0.51180555555556" footer="0.51180555555556"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="false">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
 </worksheet>
 </file>